--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1297,7 +1294,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -1505,7 +1502,7 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>106</v>
@@ -1713,13 +1710,13 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1820,7 +1817,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>106</v>
@@ -2028,13 +2025,13 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -2135,7 +2132,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>106</v>
@@ -2240,7 +2237,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>106</v>
@@ -2285,11 +2282,9 @@
       <c r="M14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2338,7 +2333,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2347,21 +2342,21 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2387,16 +2382,14 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2445,7 +2438,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2454,21 +2447,21 @@
         <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2491,19 +2484,19 @@
         <v>114</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2552,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2561,21 +2554,21 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2601,16 +2594,16 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -2659,7 +2652,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2668,13 +2661,13 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1294,7 +1297,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -1502,7 +1505,7 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>106</v>
@@ -1710,13 +1713,13 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1817,7 +1820,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>106</v>
@@ -2025,13 +2028,13 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -2132,7 +2135,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>106</v>
@@ -2237,7 +2240,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>106</v>
@@ -2282,9 +2285,11 @@
       <c r="M14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2333,7 +2338,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2342,21 +2347,21 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2382,14 +2387,16 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2438,7 +2445,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2447,21 +2454,21 @@
         <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2484,19 +2491,19 @@
         <v>114</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2545,7 +2552,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2554,21 +2561,21 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2594,16 +2601,16 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -2652,7 +2659,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2661,13 +2668,13 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
+++ b/main/ig/StructureDefinition-mesures-moment-of-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
